--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,9 +640,53 @@
         <v>2025-08-11 16:00:53.372</v>
       </c>
     </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B12" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+75.6%</v>
+      </c>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.76%</v>
+      </c>
+      <c r="D12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.43%</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2025-08-11 16:10:51.302</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>2025-08-11 16:20:31.835</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -684,9 +684,53 @@
         <v>2025-08-11 16:20:31.835</v>
       </c>
     </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+75.6%</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.76%</v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.43%</v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2025-08-11 16:31:08.835</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>2025-08-11 16:42:28.256</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -728,9 +728,57 @@
         <v>2025-08-11 16:42:28.256</v>
       </c>
     </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E16" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2025-08-11 19:15:44.763</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E17" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2025-08-11 19:27:02.532</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -776,9 +776,81 @@
         <v>2025-08-11 19:27:02.532</v>
       </c>
     </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E18" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2025-08-11 19:36:39.433</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E19" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2025-08-11 19:47:55.406</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E20" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2025-08-11 19:57:35.881</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -848,9 +848,57 @@
         <v>2025-08-11 19:57:35.881</v>
       </c>
     </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E21" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2025-08-11 20:09:27.613</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B22" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E22" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2025-08-11 20:17:54.455</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -896,9 +896,57 @@
         <v>2025-08-11 20:17:54.455</v>
       </c>
     </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B23" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E23" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2025-08-11 20:28:10.005</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B24" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E24" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2025-08-11 20:37:59.384</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -944,9 +944,129 @@
         <v>2025-08-11 20:37:59.384</v>
       </c>
     </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B25" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E25" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2025-08-11 20:47:51.885</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B26" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E26" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2025-08-11 20:57:36.439</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B27" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.41%</v>
+      </c>
+      <c r="E27" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2025-08-11 21:07:49.396</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B28" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.41%</v>
+      </c>
+      <c r="E28" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2025-08-11 21:17:49.443</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B29" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.41%</v>
+      </c>
+      <c r="E29" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2025-08-11 21:27:49.846</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F29"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1064,9 +1064,57 @@
         <v>2025-08-11 21:27:49.846</v>
       </c>
     </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B30" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.41%</v>
+      </c>
+      <c r="E30" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2025-08-11 21:38:09.858</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.41%</v>
+      </c>
+      <c r="E31" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2025-08-11 21:47:53.662</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1112,9 +1112,57 @@
         <v>2025-08-11 21:47:53.662</v>
       </c>
     </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B32" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.41%</v>
+      </c>
+      <c r="E32" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2025-08-11 21:58:05.889</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B33" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.73%</v>
+      </c>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.41%</v>
+      </c>
+      <c r="E33" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2025-08-11 22:07:46.576</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1160,9 +1160,73 @@
         <v>2025-08-11 22:07:46.576</v>
       </c>
     </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B34" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+72.96%</v>
+      </c>
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.72%</v>
+      </c>
+      <c r="D34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.4%</v>
+      </c>
+      <c r="E34" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2025-08-11 22:17:55.071</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>2025-08-11 22:27:25.189</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>2025-08-11 22:37:26.185</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1224,9 +1224,73 @@
         <v>2025-08-11 22:37:26.185</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>2025-08-11 22:47:29.377</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>2025-08-11 22:57:32.315</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B39" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+45.98%</v>
+      </c>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.11%</v>
+      </c>
+      <c r="D39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.13%</v>
+      </c>
+      <c r="E39" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2025-08-12 09:50:54.278</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F39"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1288,9 +1288,81 @@
         <v>2025-08-12 09:50:54.278</v>
       </c>
     </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B40" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+45.98%</v>
+      </c>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.16%</v>
+      </c>
+      <c r="D40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.12%</v>
+      </c>
+      <c r="E40" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2025-08-12 10:00:49.310</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B41" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+45.98%</v>
+      </c>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.16%</v>
+      </c>
+      <c r="D41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.12%</v>
+      </c>
+      <c r="E41" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2025-08-12 10:13:31.011</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B42" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+45.98%</v>
+      </c>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.16%</v>
+      </c>
+      <c r="D42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.12%</v>
+      </c>
+      <c r="E42" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2025-08-12 10:22:47.979</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1360,9 +1360,33 @@
         <v>2025-08-12 10:22:47.979</v>
       </c>
     </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B43" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+45.98%</v>
+      </c>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.16%</v>
+      </c>
+      <c r="D43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.12%</v>
+      </c>
+      <c r="E43" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2025-08-12 10:32:53.959</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F43"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1384,9 +1384,33 @@
         <v>2025-08-12 10:32:53.959</v>
       </c>
     </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B44" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+45.98%</v>
+      </c>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.16%</v>
+      </c>
+      <c r="D44" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.12%</v>
+      </c>
+      <c r="E44" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F44" t="str">
+        <v>2025-08-12 10:43:41.505</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F44"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/big-bass-keeping-it-reel.xlsx
+++ b/data/raw/big-bass-keeping-it-reel.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,57 @@
         <v>2025-08-12 19:27:20.519</v>
       </c>
     </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+51.09%</v>
+      </c>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+81.91%</v>
+      </c>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.13%</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2025-08-12 19:47:12.766</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>Big Bass - Keeping it Reel</v>
+      </c>
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+51.09%</v>
+      </c>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+81.91%</v>
+      </c>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+81.13%</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.07%</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2025-08-12 19:55:02.303</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>